--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8A4D75-4D14-46E0-B982-0C903FFD59EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42DA7D4-647D-4FB0-A730-986B44D79882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DBC957B0-0CCD-4756-BB38-64BFBC2B82B5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -82,9 +82,6 @@
 password = password</t>
   </si>
   <si>
-    <t>User should not be able to log into the application with invalid username</t>
-  </si>
-  <si>
     <t>TC003</t>
   </si>
   <si>
@@ -96,13 +93,68 @@
   </si>
   <si>
     <t xml:space="preserve">Application should throw an error when entered valid username and invalid password </t>
+  </si>
+  <si>
+    <t>1. User should not be able to log into the application with invalid username
+2. application should throw an error message "Login and/or password are wrong."</t>
+  </si>
+  <si>
+    <t>1. User should not be able to log into the application with valid username and invalid password
+2. application should throw an error message "Login and/or password are wrong."</t>
+  </si>
+  <si>
+    <t>Check if login text box can take 2 char</t>
+  </si>
+  <si>
+    <t>Check if login text box can take 3 char</t>
+  </si>
+  <si>
+    <t>Check if login text box can take 4 char</t>
+  </si>
+  <si>
+    <t>Check if login text box can take 31 char</t>
+  </si>
+  <si>
+    <t>Check if login text box can take 32 char</t>
+  </si>
+  <si>
+    <t>Check if login text box can take 33 char</t>
+  </si>
+  <si>
+    <t>1. Go to zerobank url.
+2. Click on "SignIn" button
+3. Enter 2 char only in login text box</t>
+  </si>
+  <si>
+    <t>Log ID = ts</t>
+  </si>
+  <si>
+    <t>1. Application should not accept only 2 char and throw an error " Please enter atleast 4 char"</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>TC009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +168,12 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -481,18 +539,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A296070-A8EE-4516-85B0-DF1CA9A6B472}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="2"/>
+    <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.140625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="16.7109375" style="2"/>
+    <col min="4" max="4" width="16.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="16.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -540,7 +599,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -549,24 +608,85 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
